--- a/docs/auxiliar/db_id_mapping.xlsx
+++ b/docs/auxiliar/db_id_mapping.xlsx
@@ -8,15 +8,16 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Kiko\Documents\projecttracker\docs\auxiliar\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{91B3E687-1874-4DE8-878A-9C2D569676DA}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{19D9A1BC-3816-48CC-8B2F-9D4602E56073}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="7210" yWindow="810" windowWidth="11990" windowHeight="8730" activeTab="1" xr2:uid="{078DA454-3EDA-4F0C-A94E-47D3842E963D}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11020" activeTab="1" xr2:uid="{078DA454-3EDA-4F0C-A94E-47D3842E963D}"/>
   </bookViews>
   <sheets>
     <sheet name="Folha1" sheetId="1" r:id="rId1"/>
     <sheet name="Folha2" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="181029"/>
+  <fileRecoveryPr repairLoad="1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -26,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="128" uniqueCount="41">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="141" uniqueCount="44">
   <si>
     <t>cliente</t>
   </si>
@@ -145,10 +146,19 @@
     <t>/task/employee/{idTaskAsPlanned}</t>
   </si>
   <si>
-    <t>Perguntar ao professor</t>
-  </si>
-  <si>
     <t>model to service</t>
+  </si>
+  <si>
+    <t>role</t>
+  </si>
+  <si>
+    <t>NA</t>
+  </si>
+  <si>
+    <t>/taskasplanned/overview/{id}</t>
+  </si>
+  <si>
+    <t>2nd</t>
   </si>
 </sst>
 </file>
@@ -520,10 +530,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D852F31D-C38A-4DAF-902D-E8B2E64D8D9A}">
-  <dimension ref="B3:K19"/>
+  <dimension ref="B3:L19"/>
   <sheetViews>
-    <sheetView topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="A24" sqref="A24"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B18" sqref="B18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -532,7 +542,7 @@
     <col min="2" max="2" width="10.453125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="2:11" x14ac:dyDescent="0.35">
+    <row r="3" spans="2:12" x14ac:dyDescent="0.35">
       <c r="C3" t="s">
         <v>5</v>
       </c>
@@ -560,8 +570,11 @@
       <c r="K3" t="s">
         <v>31</v>
       </c>
-    </row>
-    <row r="4" spans="2:11" x14ac:dyDescent="0.35">
+      <c r="L3" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="4" spans="2:12" x14ac:dyDescent="0.35">
       <c r="B4" t="s">
         <v>4</v>
       </c>
@@ -569,7 +582,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="2:11" x14ac:dyDescent="0.35">
+    <row r="5" spans="2:12" x14ac:dyDescent="0.35">
       <c r="B5" t="s">
         <v>4</v>
       </c>
@@ -577,7 +590,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="6" spans="2:11" x14ac:dyDescent="0.35">
+    <row r="6" spans="2:12" x14ac:dyDescent="0.35">
       <c r="B6" t="s">
         <v>0</v>
       </c>
@@ -585,7 +598,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="7" spans="2:11" x14ac:dyDescent="0.35">
+    <row r="7" spans="2:12" x14ac:dyDescent="0.35">
       <c r="B7" t="s">
         <v>0</v>
       </c>
@@ -593,7 +606,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="8" spans="2:11" x14ac:dyDescent="0.35">
+    <row r="8" spans="2:12" x14ac:dyDescent="0.35">
       <c r="B8" t="s">
         <v>2</v>
       </c>
@@ -601,7 +614,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="9" spans="2:11" x14ac:dyDescent="0.35">
+    <row r="9" spans="2:12" x14ac:dyDescent="0.35">
       <c r="B9" t="s">
         <v>2</v>
       </c>
@@ -609,7 +622,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="10" spans="2:11" x14ac:dyDescent="0.35">
+    <row r="10" spans="2:12" x14ac:dyDescent="0.35">
       <c r="B10" t="s">
         <v>2</v>
       </c>
@@ -617,7 +630,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="11" spans="2:11" x14ac:dyDescent="0.35">
+    <row r="11" spans="2:12" x14ac:dyDescent="0.35">
       <c r="B11" t="s">
         <v>2</v>
       </c>
@@ -625,7 +638,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="12" spans="2:11" x14ac:dyDescent="0.35">
+    <row r="12" spans="2:12" x14ac:dyDescent="0.35">
       <c r="B12" t="s">
         <v>6</v>
       </c>
@@ -639,7 +652,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="13" spans="2:11" x14ac:dyDescent="0.35">
+    <row r="13" spans="2:12" x14ac:dyDescent="0.35">
       <c r="B13" t="s">
         <v>6</v>
       </c>
@@ -650,7 +663,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="14" spans="2:11" x14ac:dyDescent="0.35">
+    <row r="14" spans="2:12" x14ac:dyDescent="0.35">
       <c r="B14" t="s">
         <v>10</v>
       </c>
@@ -664,7 +677,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="2:11" x14ac:dyDescent="0.35">
+    <row r="15" spans="2:12" x14ac:dyDescent="0.35">
       <c r="B15" t="s">
         <v>10</v>
       </c>
@@ -678,7 +691,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="16" spans="2:11" x14ac:dyDescent="0.35">
+    <row r="16" spans="2:12" x14ac:dyDescent="0.35">
       <c r="B16" t="s">
         <v>10</v>
       </c>
@@ -753,10 +766,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{75C9D713-F184-4037-9EA5-B89395976452}">
-  <dimension ref="B1:H20"/>
+  <dimension ref="B1:H21"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B10" workbookViewId="0">
-      <selection activeCell="B4" sqref="B4"/>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="G14" sqref="G14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -783,7 +796,7 @@
         <v>32</v>
       </c>
       <c r="H1" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
     <row r="2" spans="2:8" x14ac:dyDescent="0.35">
@@ -799,7 +812,9 @@
       <c r="F2" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="G2" s="1"/>
+      <c r="G2" s="1" t="s">
+        <v>41</v>
+      </c>
       <c r="H2" s="1" t="s">
         <v>17</v>
       </c>
@@ -838,6 +853,9 @@
       <c r="F4" s="1" t="s">
         <v>17</v>
       </c>
+      <c r="G4" s="1" t="s">
+        <v>41</v>
+      </c>
       <c r="H4" s="1" t="s">
         <v>17</v>
       </c>
@@ -875,7 +893,9 @@
       <c r="F6" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="G6" s="1"/>
+      <c r="G6" s="1" t="s">
+        <v>41</v>
+      </c>
       <c r="H6" s="1" t="s">
         <v>17</v>
       </c>
@@ -913,7 +933,9 @@
       <c r="F8" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="G8" s="1"/>
+      <c r="G8" s="1" t="s">
+        <v>41</v>
+      </c>
       <c r="H8" s="1" t="s">
         <v>17</v>
       </c>
@@ -1027,7 +1049,7 @@
       <c r="F14" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="G14" s="1">
+      <c r="G14" s="4">
         <v>400</v>
       </c>
       <c r="H14" s="1" t="s">
@@ -1105,22 +1127,22 @@
     </row>
     <row r="18" spans="2:8" x14ac:dyDescent="0.35">
       <c r="B18" s="1" t="s">
-        <v>20</v>
+        <v>43</v>
       </c>
       <c r="C18" s="2" t="s">
         <v>20</v>
       </c>
       <c r="D18" t="s">
-        <v>33</v>
+        <v>12</v>
       </c>
       <c r="E18" t="s">
-        <v>35</v>
+        <v>42</v>
       </c>
       <c r="F18" s="1" t="s">
         <v>17</v>
       </c>
       <c r="G18" s="1">
-        <v>400</v>
+        <v>404</v>
       </c>
       <c r="H18" s="1" t="s">
         <v>17</v>
@@ -1130,16 +1152,24 @@
       <c r="B19" s="1" t="s">
         <v>20</v>
       </c>
+      <c r="C19" s="2" t="s">
+        <v>20</v>
+      </c>
       <c r="D19" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="E19" t="s">
-        <v>37</v>
-      </c>
-      <c r="G19" t="s">
-        <v>39</v>
-      </c>
-      <c r="H19" s="1"/>
+        <v>35</v>
+      </c>
+      <c r="F19" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="G19" s="1">
+        <v>400</v>
+      </c>
+      <c r="H19" s="1" t="s">
+        <v>17</v>
+      </c>
     </row>
     <row r="20" spans="2:8" x14ac:dyDescent="0.35">
       <c r="B20" s="1" t="s">
@@ -1152,15 +1182,38 @@
         <v>36</v>
       </c>
       <c r="E20" t="s">
+        <v>37</v>
+      </c>
+      <c r="F20" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="G20" s="1">
+        <v>400</v>
+      </c>
+      <c r="H20" s="1" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="21" spans="2:8" x14ac:dyDescent="0.35">
+      <c r="B21" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="C21" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="D21" t="s">
+        <v>36</v>
+      </c>
+      <c r="E21" t="s">
         <v>38</v>
       </c>
-      <c r="F20" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="G20" s="3">
+      <c r="F21" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="G21" s="3">
         <v>400404</v>
       </c>
-      <c r="H20" s="1" t="s">
+      <c r="H21" s="1" t="s">
         <v>17</v>
       </c>
     </row>
